--- a/inSALMO Fish Parameters.xlsx
+++ b/inSALMO Fish Parameters.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter.dudley\Documents\Research\Projects\inSALMO Basic\Inputs\Biotic Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ted\Desktop\predation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D16CD-0845-4FBC-82D5-F54611CF324F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="804"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="804" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="32" r:id="rId1"/>
@@ -98,17 +99,28 @@
     <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter Dudley</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,12 +149,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -171,12 +183,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -205,12 +217,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -239,12 +251,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -273,12 +285,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter</author>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -307,12 +319,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -341,12 +353,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -375,12 +387,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -409,12 +421,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1422,9 +1434,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>specide</t>
-  </si>
-  <si>
     <t>d-variable</t>
   </si>
   <si>
@@ -1499,11 +1508,14 @@
   <si>
     <t xml:space="preserve"> Has data used to get U and L relationships for predation. Fitting by eye</t>
   </si>
+  <si>
+    <t>journal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
@@ -7728,7 +7740,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7776,7 +7794,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7811,7 +7835,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7855,7 +7885,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7887,7 +7923,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1D00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7936,7 +7978,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7971,20 +8019,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5525754" y="99647"/>
-          <a:ext cx="4684139" cy="4654005"/>
+          <a:off x="5382147" y="99647"/>
+          <a:ext cx="4571304" cy="4882605"/>
           <a:chOff x="8151724" y="205154"/>
           <a:chExt cx="4684139" cy="4654005"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2"/>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -8013,7 +8073,13 @@
       </xdr:pic>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="4" name="Chart 3"/>
+          <xdr:cNvPr id="4" name="Chart 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -8110,6 +8176,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8145,6 +8228,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8320,10 +8420,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -8338,7 +8438,7 @@
         <v>223</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8346,7 +8446,7 @@
         <v>224</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8354,7 +8454,7 @@
         <v>225</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8362,15 +8462,15 @@
         <v>226</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8383,10 +8483,10 @@
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="70" t="s">
         <v>336</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8426,7 +8526,7 @@
         <v>237</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8434,7 +8534,7 @@
         <v>238</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -8442,7 +8542,7 @@
         <v>239</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8490,15 +8590,15 @@
         <v>250</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8532,7 +8632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8660,7 +8760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8809,7 +8909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9172,7 +9272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -11353,7 +11453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -17097,7 +17197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -17571,7 +17671,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="E2:H42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:H42">
     <sortCondition ref="E2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17580,7 +17680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
@@ -18308,7 +18408,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:E8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E8">
     <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18317,7 +18417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22945,7 +23045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23670,7 +23770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24361,7 +24461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30303,7 +30403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView topLeftCell="H49" workbookViewId="0">
@@ -33762,11 +33862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33793,31 +33893,31 @@
         <v>263</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>303</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>261</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -34978,7 +35078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -35035,13 +35135,13 @@
         <v>291</v>
       </c>
       <c r="K1" s="72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L1" s="72" t="s">
         <v>294</v>
       </c>
       <c r="M1" s="80" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N1" s="80" t="s">
         <v>46</v>
@@ -35050,7 +35150,7 @@
         <v>8</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -35100,7 +35200,7 @@
         <v>21</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -35150,7 +35250,7 @@
         <v>21</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -35200,7 +35300,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -35250,7 +35350,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -35300,7 +35400,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -35350,7 +35450,7 @@
         <v>21</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -35400,7 +35500,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -35450,7 +35550,7 @@
         <v>21</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -35500,7 +35600,7 @@
         <v>7</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -35550,7 +35650,7 @@
         <v>7</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -35600,7 +35700,7 @@
         <v>7</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -35650,7 +35750,7 @@
         <v>7</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -35700,7 +35800,7 @@
         <v>7</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -35750,7 +35850,7 @@
         <v>7</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -35800,7 +35900,7 @@
         <v>7</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -35850,7 +35950,7 @@
         <v>7</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -35900,7 +36000,7 @@
         <v>7</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -35950,7 +36050,7 @@
         <v>7</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -36000,7 +36100,7 @@
         <v>7</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -36050,7 +36150,7 @@
         <v>7</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -36100,7 +36200,7 @@
         <v>7</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -36144,13 +36244,13 @@
         <v>0.44810126582278398</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -36194,13 +36294,13 @@
         <v>0.33670886075949302</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -36244,13 +36344,13 @@
         <v>0.15443037974683499</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -36294,13 +36394,13 @@
         <v>0.17468354430379701</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -36344,13 +36444,13 @@
         <v>0.19240506329113899</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -36394,13 +36494,13 @@
         <v>0.22025316455696201</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -36444,13 +36544,13 @@
         <v>8.1012658227847797E-2</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -36494,13 +36594,13 @@
         <v>0.20506329113923999</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -36544,13 +36644,13 @@
         <v>8.8607594936708806E-2</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -36594,13 +36694,13 @@
         <v>9.6202531645569606E-2</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -36644,13 +36744,13 @@
         <v>0.74337984023681503</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -36694,13 +36794,13 @@
         <v>0.13319330474718599</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -36744,13 +36844,13 @@
         <v>5.87271183858257E-2</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -36794,13 +36894,13 @@
         <v>0.13531549964085901</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -36844,13 +36944,13 @@
         <v>9.9146768822235998E-2</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O37" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -36894,13 +36994,13 @@
         <v>0.254896284526478</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O38" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -36944,13 +37044,13 @@
         <v>0.35405175978930398</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O39" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -36994,13 +37094,13 @@
         <v>1.70210913523276E-2</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O40" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -37044,13 +37144,13 @@
         <v>1.2646104956137701E-3</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O41" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -37094,13 +37194,13 @@
         <v>0.20298413251202499</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O42" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -37109,7 +37209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -41148,7 +41248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45157,7 +45257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46101,7 +46201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -46652,7 +46752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47149,7 +47249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:L328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58329,7 +58429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -59495,7 +59595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -62364,7 +62464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -62625,7 +62725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -62939,7 +63039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -63245,7 +63345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -68209,7 +68309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -68259,7 +68359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -69009,7 +69109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -69627,7 +69727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I380"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -78775,7 +78875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/inSALMO Fish Parameters.xlsx
+++ b/inSALMO Fish Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ted\Desktop\predation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D16CD-0845-4FBC-82D5-F54611CF324F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7802C4-5687-4DE6-95D7-7E8535381CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="804" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33866,7 +33866,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33877,8 +33877,8 @@
     <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>

--- a/inSALMO Fish Parameters.xlsx
+++ b/inSALMO Fish Parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -464,7 +464,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10370" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10370" uniqueCount="351">
   <si>
     <t xml:space="preserve">fishSpawnVSuit</t>
   </si>
@@ -1123,7 +1123,7 @@
     <t xml:space="preserve">journal</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">i_units</t>
@@ -1516,6 +1516,9 @@
   </si>
   <si>
     <t xml:space="preserve">Has Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">Slope 1</t>
@@ -4513,11 +4516,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13171119"/>
-        <c:axId val="2744352"/>
+        <c:axId val="65277034"/>
+        <c:axId val="9013928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13171119"/>
+        <c:axId val="65277034"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,12 +4586,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2744352"/>
+        <c:crossAx val="9013928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2744352"/>
+        <c:axId val="9013928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -4656,7 +4659,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13171119"/>
+        <c:crossAx val="65277034"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4836,11 +4839,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="95036965"/>
-        <c:axId val="81065277"/>
+        <c:axId val="22411727"/>
+        <c:axId val="53281294"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95036965"/>
+        <c:axId val="22411727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4883,12 +4886,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81065277"/>
+        <c:crossAx val="53281294"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81065277"/>
+        <c:axId val="53281294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4931,7 +4934,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95036965"/>
+        <c:crossAx val="22411727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5154,11 +5157,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44326132"/>
-        <c:axId val="70476466"/>
+        <c:axId val="15582447"/>
+        <c:axId val="45838211"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44326132"/>
+        <c:axId val="15582447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5234,12 +5237,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70476466"/>
+        <c:crossAx val="45838211"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70476466"/>
+        <c:axId val="45838211"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -5316,7 +5319,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44326132"/>
+        <c:crossAx val="15582447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5466,11 +5469,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="77683736"/>
-        <c:axId val="95053112"/>
+        <c:axId val="18757675"/>
+        <c:axId val="48248240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77683736"/>
+        <c:axId val="18757675"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -5513,12 +5516,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95053112"/>
+        <c:crossAx val="48248240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95053112"/>
+        <c:axId val="48248240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5561,7 +5564,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77683736"/>
+        <c:crossAx val="18757675"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5598,9 +5601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>22320</xdr:colOff>
+      <xdr:colOff>21960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5614,7 +5617,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11459160" y="119160"/>
-          <a:ext cx="6303600" cy="5541480"/>
+          <a:ext cx="6303240" cy="5541120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5642,9 +5645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>786600</xdr:colOff>
+      <xdr:colOff>786240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5653,7 +5656,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10445040" y="0"/>
-        <a:ext cx="6293880" cy="5333040"/>
+        <a:ext cx="6293520" cy="5332680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5677,9 +5680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>87480</xdr:colOff>
+      <xdr:colOff>87120</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5692,8 +5695,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7663320" y="474840"/>
-          <a:ext cx="6675840" cy="5327640"/>
+          <a:off x="7662240" y="474840"/>
+          <a:ext cx="6675480" cy="5327280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5714,9 +5717,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5724,8 +5727,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8373960" y="397440"/>
-        <a:ext cx="5166720" cy="4921200"/>
+        <a:off x="8372520" y="397440"/>
+        <a:ext cx="5166360" cy="4920840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5744,9 +5747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>544680</xdr:colOff>
+      <xdr:colOff>544320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5759,8 +5762,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7569000" y="6114960"/>
-          <a:ext cx="6440760" cy="5227200"/>
+          <a:off x="7567920" y="6114960"/>
+          <a:ext cx="6440040" cy="5226840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5786,9 +5789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>403200</xdr:colOff>
+      <xdr:colOff>402840</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5797,7 +5800,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11446920" y="38160"/>
-        <a:ext cx="5811480" cy="2856600"/>
+        <a:ext cx="5811120" cy="2856240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5821,9 +5824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>537480</xdr:colOff>
+      <xdr:colOff>537120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5836,8 +5839,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115760" y="99720"/>
-          <a:ext cx="5923440" cy="4881600"/>
+          <a:off x="7113600" y="99720"/>
+          <a:ext cx="5923440" cy="4881240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5858,9 +5861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5868,8 +5871,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7748640" y="241200"/>
-        <a:ext cx="4068360" cy="4297680"/>
+        <a:off x="7746480" y="241200"/>
+        <a:ext cx="4068360" cy="4297320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5890,7 +5893,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="J2:J42 D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6112,7 +6115,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="1" sqref="J2:J42 P8"/>
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6249,7 +6252,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="1" sqref="J2:J42 M10"/>
+      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6404,7 +6407,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="J2:J42 A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6775,7 +6778,7 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="1" sqref="J2:J42 G43"/>
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8967,7 +8970,7 @@
   <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q19" activeCellId="1" sqref="J2:J42 Q19"/>
+      <selection pane="topLeft" activeCell="Q19" activeCellId="0" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14720,7 +14723,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="1" sqref="J2:J42 L25"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15207,7 +15210,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F62" activeCellId="1" sqref="J2:J42 F62"/>
+      <selection pane="topLeft" activeCell="F62" activeCellId="0" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15951,7 +15954,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H120" activeCellId="1" sqref="J2:J42 H120"/>
+      <selection pane="bottomLeft" activeCell="H120" activeCellId="0" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20587,7 +20590,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="1" sqref="J2:J42 N17"/>
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21321,7 +21324,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P13" activeCellId="1" sqref="J2:J42 P13"/>
+      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22021,7 +22024,7 @@
   <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J2:J42 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27972,7 +27975,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J39" activeCellId="0" sqref="J2:J42"/>
+      <selection pane="topLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31438,8 +31441,8 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="1" sqref="J2:J42 L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32663,8 +32666,8 @@
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34930,7 +34933,7 @@
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="J2:J42 A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38978,7 +38981,7 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="J2:J42 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42683,7 +42686,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M26" activeCellId="1" sqref="J2:J42 M26"/>
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43636,7 +43639,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="J2:J42 L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44196,7 +44199,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U7" activeCellId="1" sqref="J2:J42 U7"/>
+      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44701,7 +44704,7 @@
   <dimension ref="A1:L328"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="1" sqref="J2:J42 K1"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55890,7 +55893,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J2:J42"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57065,7 +57068,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J2:J42"/>
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59943,7 +59946,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z5" activeCellId="1" sqref="J2:J42 Z5"/>
+      <selection pane="topLeft" activeCell="Z5" activeCellId="0" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59990,7 +59993,7 @@
         <v>332</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>262</v>
@@ -60213,7 +60216,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="1" sqref="J2:J42 D25"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -60492,7 +60495,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O15" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>0.0144</v>
@@ -60500,7 +60503,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O16" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>0.0186</v>
@@ -60536,7 +60539,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J2:J42"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -60584,7 +60587,7 @@
         <v>332</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>262</v>
@@ -60851,7 +60854,7 @@
   <dimension ref="A1:K144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="J2:J42 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -65824,7 +65827,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="J2:J42 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -65885,7 +65888,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L14" activeCellId="1" sqref="J2:J42 L14"/>
+      <selection pane="bottomLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -66231,7 +66234,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G4" activeCellId="1" sqref="J2:J42 G4"/>
+      <selection pane="bottomLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -66445,7 +66448,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J18" activeCellId="0" sqref="J2:J42"/>
+      <selection pane="bottomLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -75601,7 +75604,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="1" sqref="J2:J42 F14"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
